--- a/output/SOLANA_18772290000157.xlsx
+++ b/output/SOLANA_18772290000157.xlsx
@@ -1340,10 +1340,10 @@
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>1.078154205</v>
+        <v>1.075503824</v>
       </c>
       <c r="C87">
-        <v>-0.009284105881511073</v>
+        <v>-0.01054761875069643</v>
       </c>
     </row>
   </sheetData>

--- a/output/SOLANA_18772290000157.xlsx
+++ b/output/SOLANA_18772290000157.xlsx
@@ -14,12 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>SOLANA LONG AND SHORT FUNDO DE INVESTIMENTO EM COTAS DE FUNDOS DE INVESTIMENTO MULTIMERCADO</t>
-  </si>
-  <si>
-    <t>mensal</t>
   </si>
   <si>
     <t>d</t>
@@ -386,964 +383,706 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C87"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" s="2">
         <v>41578</v>
       </c>
       <c r="B2">
-        <v>0.001129257000000106</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" s="2">
         <v>41608</v>
       </c>
       <c r="B3">
-        <v>-0.002040068999999978</v>
-      </c>
-      <c r="C3">
         <v>-0.003165751053462729</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:2">
       <c r="A4" s="2">
         <v>41639</v>
       </c>
       <c r="B4">
-        <v>0.006951866999999945</v>
-      </c>
-      <c r="C4">
         <v>0.009010317669758239</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:2">
       <c r="A5" s="2">
         <v>41670</v>
       </c>
       <c r="B5">
-        <v>0.02151191200000002</v>
-      </c>
-      <c r="C5">
         <v>0.01445952431011288</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:2">
       <c r="A6" s="2">
         <v>41698</v>
       </c>
       <c r="B6">
-        <v>0.03823023599999997</v>
-      </c>
-      <c r="C6">
         <v>0.01636625457188012</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:2">
       <c r="A7" s="2">
         <v>41729</v>
       </c>
       <c r="B7">
-        <v>0.04065340000000006</v>
-      </c>
-      <c r="C7">
         <v>0.002333937036293365</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:2">
       <c r="A8" s="2">
         <v>41759</v>
       </c>
       <c r="B8">
-        <v>0.04833326599999999</v>
-      </c>
-      <c r="C8">
         <v>0.007379850005775124</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:2">
       <c r="A9" s="2">
         <v>41790</v>
       </c>
       <c r="B9">
-        <v>0.06542409800000004</v>
-      </c>
-      <c r="C9">
         <v>0.01630286146047011</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:2">
       <c r="A10" s="2">
         <v>41820</v>
       </c>
       <c r="B10">
-        <v>0.0781794870000001</v>
-      </c>
-      <c r="C10">
         <v>0.01197212361156863</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:2">
       <c r="A11" s="2">
         <v>41851</v>
       </c>
       <c r="B11">
-        <v>0.09709910200000005</v>
-      </c>
-      <c r="C11">
         <v>0.01754774156633521</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:2">
       <c r="A12" s="2">
         <v>41882</v>
       </c>
       <c r="B12">
-        <v>0.101397202</v>
-      </c>
-      <c r="C12">
         <v>0.003917695304065605</v>
       </c>
     </row>
-    <row r="13" spans="1:3">
+    <row r="13" spans="1:2">
       <c r="A13" s="2">
         <v>41912</v>
       </c>
       <c r="B13">
-        <v>0.1103619279999999</v>
-      </c>
-      <c r="C13">
         <v>0.008139412360700593</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:2">
       <c r="A14" s="2">
         <v>41943</v>
       </c>
       <c r="B14">
-        <v>0.127756481</v>
-      </c>
-      <c r="C14">
         <v>0.01566566050344642</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:2">
       <c r="A15" s="2">
         <v>41973</v>
       </c>
       <c r="B15">
-        <v>0.1436661379999999</v>
-      </c>
-      <c r="C15">
         <v>0.01410735142563091</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:2">
       <c r="A16" s="2">
         <v>42004</v>
       </c>
       <c r="B16">
-        <v>0.1520735500000001</v>
-      </c>
-      <c r="C16">
         <v>0.007351281742679516</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:2">
       <c r="A17" s="2">
         <v>42035</v>
       </c>
       <c r="B17">
-        <v>0.1633525629999999</v>
-      </c>
-      <c r="C17">
         <v>0.009790184836723226</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:2">
       <c r="A18" s="2">
         <v>42063</v>
       </c>
       <c r="B18">
-        <v>0.179560927</v>
-      </c>
-      <c r="C18">
         <v>0.01393246081669575</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:2">
       <c r="A19" s="2">
         <v>42094</v>
       </c>
       <c r="B19">
-        <v>0.1858999640000001</v>
-      </c>
-      <c r="C19">
         <v>0.005374064921022992</v>
       </c>
     </row>
-    <row r="20" spans="1:3">
+    <row r="20" spans="1:2">
       <c r="A20" s="2">
         <v>42124</v>
       </c>
       <c r="B20">
-        <v>0.184942929</v>
-      </c>
-      <c r="C20">
         <v>-0.0008070115769057695</v>
       </c>
     </row>
-    <row r="21" spans="1:3">
+    <row r="21" spans="1:2">
       <c r="A21" s="2">
         <v>42155</v>
       </c>
       <c r="B21">
-        <v>0.2099364129999999</v>
-      </c>
-      <c r="C21">
         <v>0.02109256352210354</v>
       </c>
     </row>
-    <row r="22" spans="1:3">
+    <row r="22" spans="1:2">
       <c r="A22" s="2">
         <v>42185</v>
       </c>
       <c r="B22">
-        <v>0.232762476</v>
-      </c>
-      <c r="C22">
         <v>0.0188655062817753</v>
       </c>
     </row>
-    <row r="23" spans="1:3">
+    <row r="23" spans="1:2">
       <c r="A23" s="2">
         <v>42216</v>
       </c>
       <c r="B23">
-        <v>0.2495282140000001</v>
-      </c>
-      <c r="C23">
         <v>0.01360013654406544</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:2">
       <c r="A24" s="2">
         <v>42247</v>
       </c>
       <c r="B24">
-        <v>0.2678745999999999</v>
-      </c>
-      <c r="C24">
         <v>0.01468265045514183</v>
       </c>
     </row>
-    <row r="25" spans="1:3">
+    <row r="25" spans="1:2">
       <c r="A25" s="2">
         <v>42277</v>
       </c>
       <c r="B25">
-        <v>0.2691385689999999</v>
-      </c>
-      <c r="C25">
         <v>0.0009969195691750254</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:2">
       <c r="A26" s="2">
         <v>42308</v>
       </c>
       <c r="B26">
-        <v>0.266320106</v>
-      </c>
-      <c r="C26">
         <v>-0.0022207685345349</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:2">
       <c r="A27" s="2">
         <v>42338</v>
       </c>
       <c r="B27">
-        <v>0.2934465560000001</v>
-      </c>
-      <c r="C27">
         <v>0.02142147934907701</v>
       </c>
     </row>
-    <row r="28" spans="1:3">
+    <row r="28" spans="1:2">
       <c r="A28" s="2">
         <v>42369</v>
       </c>
       <c r="B28">
-        <v>0.3187481700000001</v>
-      </c>
-      <c r="C28">
         <v>0.0195613911395347</v>
       </c>
     </row>
-    <row r="29" spans="1:3">
+    <row r="29" spans="1:2">
       <c r="A29" s="2">
         <v>42400</v>
       </c>
       <c r="B29">
-        <v>0.3344561959999999</v>
-      </c>
-      <c r="C29">
         <v>0.01191131586556038</v>
       </c>
     </row>
-    <row r="30" spans="1:3">
+    <row r="30" spans="1:2">
       <c r="A30" s="2">
         <v>42429</v>
       </c>
       <c r="B30">
-        <v>0.3503927609999999</v>
-      </c>
-      <c r="C30">
         <v>0.01194236652186076</v>
       </c>
     </row>
-    <row r="31" spans="1:3">
+    <row r="31" spans="1:2">
       <c r="A31" s="2">
         <v>42460</v>
       </c>
       <c r="B31">
-        <v>0.3464808180000001</v>
-      </c>
-      <c r="C31">
         <v>-0.002896892750745339</v>
       </c>
     </row>
-    <row r="32" spans="1:3">
+    <row r="32" spans="1:2">
       <c r="A32" s="2">
         <v>42490</v>
       </c>
       <c r="B32">
-        <v>0.377553641</v>
-      </c>
-      <c r="C32">
         <v>0.0230770632485906</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>42521</v>
       </c>
       <c r="B33">
-        <v>0.3890862020000001</v>
-      </c>
-      <c r="C33">
         <v>0.008371769096140902</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>42551</v>
       </c>
       <c r="B34">
-        <v>0.4079849790000001</v>
-      </c>
-      <c r="C34">
         <v>0.01360518661317744</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>42582</v>
       </c>
       <c r="B35">
-        <v>0.4246527630000001</v>
-      </c>
-      <c r="C35">
         <v>0.01183804106478337</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>42613</v>
       </c>
       <c r="B36">
-        <v>0.443054034</v>
-      </c>
-      <c r="C36">
         <v>0.01291632001699194</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>42643</v>
       </c>
       <c r="B37">
-        <v>0.461277326</v>
-      </c>
-      <c r="C37">
         <v>0.01262828111119796</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>42674</v>
       </c>
       <c r="B38">
-        <v>0.488167308</v>
-      </c>
-      <c r="C38">
         <v>0.01840169659896573</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>42704</v>
       </c>
       <c r="B39">
-        <v>0.5056917240000001</v>
-      </c>
-      <c r="C39">
         <v>0.01177583723670939</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>42735</v>
       </c>
       <c r="B40">
-        <v>0.5322104649999999</v>
-      </c>
-      <c r="C40">
         <v>0.01761233098203574</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>42766</v>
       </c>
       <c r="B41">
-        <v>0.5669490680000002</v>
-      </c>
-      <c r="C41">
         <v>0.02267221363743932</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>42794</v>
       </c>
       <c r="B42">
-        <v>0.5910951850000001</v>
-      </c>
-      <c r="C42">
         <v>0.01540963742415657</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>42825</v>
       </c>
       <c r="B43">
-        <v>0.6060410379999999</v>
-      </c>
-      <c r="C43">
         <v>0.0093934373888509</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>42855</v>
       </c>
       <c r="B44">
-        <v>0.617857592</v>
-      </c>
-      <c r="C44">
         <v>0.007357566662627324</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>42886</v>
       </c>
       <c r="B45">
-        <v>0.6250406659999999</v>
-      </c>
-      <c r="C45">
         <v>0.004439867906494754</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>42916</v>
       </c>
       <c r="B46">
-        <v>0.6361045429999999</v>
-      </c>
-      <c r="C46">
         <v>0.006808369311294582</v>
       </c>
     </row>
-    <row r="47" spans="1:3">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>42947</v>
       </c>
       <c r="B47">
-        <v>0.6510049580000001</v>
-      </c>
-      <c r="C47">
         <v>0.009107251161761587</v>
       </c>
     </row>
-    <row r="48" spans="1:3">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>42978</v>
       </c>
       <c r="B48">
-        <v>0.6602932699999999</v>
-      </c>
-      <c r="C48">
         <v>0.00562585348698863</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>43008</v>
       </c>
       <c r="B49">
-        <v>0.692883876</v>
-      </c>
-      <c r="C49">
         <v>0.01962942727582107</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>43039</v>
       </c>
       <c r="B50">
-        <v>0.689420618</v>
-      </c>
-      <c r="C50">
         <v>-0.002045774107189868</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>43069</v>
       </c>
       <c r="B51">
-        <v>0.6712333430000001</v>
-      </c>
-      <c r="C51">
         <v>-0.01076539187827041</v>
       </c>
     </row>
-    <row r="52" spans="1:3">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>43100</v>
       </c>
       <c r="B52">
-        <v>0.6770899019999999</v>
-      </c>
-      <c r="C52">
         <v>0.003504333505868651</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>43131</v>
       </c>
       <c r="B53">
-        <v>0.6823375890000001</v>
-      </c>
-      <c r="C53">
         <v>0.003129043346896454</v>
       </c>
     </row>
-    <row r="54" spans="1:3">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>43159</v>
       </c>
       <c r="B54">
-        <v>0.6910983659999999</v>
-      </c>
-      <c r="C54">
         <v>0.005207502380783824</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>43190</v>
       </c>
       <c r="B55">
-        <v>0.714961672</v>
-      </c>
-      <c r="C55">
         <v>0.01411112829376382</v>
       </c>
     </row>
-    <row r="56" spans="1:3">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>43220</v>
       </c>
       <c r="B56">
-        <v>0.761972879</v>
-      </c>
-      <c r="C56">
         <v>0.02741239513835625</v>
       </c>
     </row>
-    <row r="57" spans="1:3">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>43251</v>
       </c>
       <c r="B57">
-        <v>0.7647608180000001</v>
-      </c>
-      <c r="C57">
         <v>0.001582282584044359</v>
       </c>
     </row>
-    <row r="58" spans="1:3">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>43281</v>
       </c>
       <c r="B58">
-        <v>0.7741416989999998</v>
-      </c>
-      <c r="C58">
         <v>0.005315667088886977</v>
       </c>
     </row>
-    <row r="59" spans="1:3">
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>43312</v>
       </c>
       <c r="B59">
-        <v>0.790809482</v>
-      </c>
-      <c r="C59">
         <v>0.009394843156775412</v>
       </c>
     </row>
-    <row r="60" spans="1:3">
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>43343</v>
       </c>
       <c r="B60">
-        <v>0.7886124219999999</v>
-      </c>
-      <c r="C60">
         <v>-0.001226853008141515</v>
       </c>
     </row>
-    <row r="61" spans="1:3">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>43373</v>
       </c>
       <c r="B61">
-        <v>0.8028511570000001</v>
-      </c>
-      <c r="C61">
         <v>0.007960771615394879</v>
       </c>
     </row>
-    <row r="62" spans="1:3">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>43404</v>
       </c>
       <c r="B62">
-        <v>0.8044759149999998</v>
-      </c>
-      <c r="C62">
         <v>0.0009012158289891659</v>
       </c>
     </row>
-    <row r="63" spans="1:3">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>43434</v>
       </c>
       <c r="B63">
-        <v>0.8036487059999999</v>
-      </c>
-      <c r="C63">
         <v>-0.0004584206378835942</v>
       </c>
     </row>
-    <row r="64" spans="1:3">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>43465</v>
       </c>
       <c r="B64">
-        <v>0.8202338169999999</v>
-      </c>
-      <c r="C64">
         <v>0.009195311118416871</v>
       </c>
     </row>
-    <row r="65" spans="1:3">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>43496</v>
       </c>
       <c r="B65">
-        <v>0.8227630500000001</v>
-      </c>
-      <c r="C65">
         <v>0.001389509949973666</v>
       </c>
     </row>
-    <row r="66" spans="1:3">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>43524</v>
       </c>
       <c r="B66">
-        <v>0.8384339089999999</v>
-      </c>
-      <c r="C66">
         <v>0.008597310001428715</v>
       </c>
     </row>
-    <row r="67" spans="1:3">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>43555</v>
       </c>
       <c r="B67">
-        <v>0.8497809060000001</v>
-      </c>
-      <c r="C67">
         <v>0.006172099494276884</v>
       </c>
     </row>
-    <row r="68" spans="1:3">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>43585</v>
       </c>
       <c r="B68">
-        <v>0.848938073</v>
-      </c>
-      <c r="C68">
         <v>-0.0004556393664061353</v>
       </c>
     </row>
-    <row r="69" spans="1:3">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>43616</v>
       </c>
       <c r="B69">
-        <v>0.8647297119999999</v>
-      </c>
-      <c r="C69">
         <v>0.008540923695933733</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>43646</v>
       </c>
       <c r="B70">
-        <v>0.8655679409999999</v>
-      </c>
-      <c r="C70">
         <v>0.0004495176939616208</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>43677</v>
       </c>
       <c r="B71">
-        <v>0.8790995000000001</v>
-      </c>
-      <c r="C71">
         <v>0.007253318789744556</v>
       </c>
     </row>
-    <row r="72" spans="1:3">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>43708</v>
       </c>
       <c r="B72">
-        <v>0.9169207739999998</v>
-      </c>
-      <c r="C72">
         <v>0.02012733971777414</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>43738</v>
       </c>
       <c r="B73">
-        <v>0.9150066229999998</v>
-      </c>
-      <c r="C73">
         <v>-0.0009985550920843522</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>43769</v>
       </c>
       <c r="B74">
-        <v>0.953036386</v>
-      </c>
-      <c r="C74">
         <v>0.01985881539167922</v>
       </c>
     </row>
-    <row r="75" spans="1:3">
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>43799</v>
       </c>
       <c r="B75">
-        <v>0.943142836</v>
-      </c>
-      <c r="C75">
         <v>-0.005065727433917866</v>
       </c>
     </row>
-    <row r="76" spans="1:3">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>43830</v>
       </c>
       <c r="B76">
-        <v>0.9742738470000001</v>
-      </c>
-      <c r="C76">
         <v>0.01602095863631092</v>
       </c>
     </row>
-    <row r="77" spans="1:3">
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>43861</v>
       </c>
       <c r="B77">
-        <v>1.043253456</v>
-      </c>
-      <c r="C77">
         <v>0.03493923049470449</v>
       </c>
     </row>
-    <row r="78" spans="1:3">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>43890</v>
       </c>
       <c r="B78">
-        <v>1.055357104</v>
-      </c>
-      <c r="C78">
         <v>0.00592371346024545</v>
       </c>
     </row>
-    <row r="79" spans="1:3">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>43921</v>
       </c>
       <c r="B79">
-        <v>0.9587281870000002</v>
-      </c>
-      <c r="C79">
         <v>-0.04701320116681773</v>
       </c>
     </row>
-    <row r="80" spans="1:3">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>43951</v>
       </c>
       <c r="B80">
-        <v>1.02627701</v>
-      </c>
-      <c r="C80">
         <v>0.03448606266470167</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>43982</v>
       </c>
       <c r="B81">
-        <v>1.065626228</v>
-      </c>
-      <c r="C81">
         <v>0.01941946624563462</v>
       </c>
     </row>
-    <row r="82" spans="1:3">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>44012</v>
       </c>
       <c r="B82">
-        <v>1.081228171</v>
-      </c>
-      <c r="C82">
         <v>0.007553129791107338</v>
       </c>
     </row>
-    <row r="83" spans="1:3">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>44043</v>
       </c>
       <c r="B83">
-        <v>1.092656159</v>
-      </c>
-      <c r="C83">
         <v>0.005490982756835017</v>
       </c>
     </row>
-    <row r="84" spans="1:3">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>44074</v>
       </c>
       <c r="B84">
-        <v>1.11541845</v>
-      </c>
-      <c r="C84">
         <v>0.0108772245751434</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>44104</v>
       </c>
       <c r="B85">
-        <v>1.102293755</v>
-      </c>
-      <c r="C85">
         <v>-0.006204302037736364</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>44135</v>
       </c>
       <c r="B86">
-        <v>1.097628813</v>
-      </c>
-      <c r="C86">
         <v>-0.002218977242787745</v>
       </c>
     </row>
-    <row r="87" spans="1:3">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>44165</v>
       </c>
       <c r="B87">
-        <v>1.075503824</v>
-      </c>
-      <c r="C87">
-        <v>-0.01054761875069643</v>
+        <v>-0.01671783719915931</v>
       </c>
     </row>
   </sheetData>
